--- a/Assets/06.Table/BingoEvent.xlsx
+++ b/Assets/06.Table/BingoEvent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2549F134-5EB3-473A-94EE-0541179AC397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD611CB-FDE2-4D0F-AD9E-78846242EC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="66">
   <si>
     <t>Normal</t>
   </si>
@@ -239,6 +239,24 @@
   </si>
   <si>
     <t>사신수 기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이날 빙고 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련서</t>
+  </si>
+  <si>
+    <t>수련서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈의 기운</t>
+  </si>
+  <si>
+    <t>혈의 기운</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,13 +295,28 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -300,7 +333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,6 +342,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -328,9 +364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -368,7 +404,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -474,7 +510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -616,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -626,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108ED927-1C36-4BA9-A7D7-4F20940B7A4C}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -866,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>9064</v>
       </c>
       <c r="D12">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1046,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>9065</v>
       </c>
       <c r="D21">
-        <v>100000000</v>
+        <v>5000</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -1406,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826463D2-0834-4C0E-98C2-19D332D0F62E}">
-  <dimension ref="B2:S33"/>
+  <dimension ref="B2:S70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E28"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1662,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f>M8*$C$9</f>
         <v>65.599999999999994</v>
       </c>
     </row>
@@ -2230,7 +2266,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="33" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K33" t="s">
         <v>60</v>
       </c>
@@ -2241,7 +2277,856 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="E37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" t="s">
+        <v>9</v>
+      </c>
+      <c r="N38" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>8</v>
+      </c>
+      <c r="R38" t="s">
+        <v>9</v>
+      </c>
+      <c r="S38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>100000000</v>
+      </c>
+      <c r="H39">
+        <f>G39*$C$9</f>
+        <v>1639999999.9999998</v>
+      </c>
+      <c r="J39" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39">
+        <v>9009</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="N39">
+        <f>M39*$C$9</f>
+        <v>82</v>
+      </c>
+      <c r="P39" t="s">
+        <v>13</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <f>C44*R39</f>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40">
+        <v>9008</v>
+      </c>
+      <c r="G40">
+        <v>100000</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40:H63" si="2">G40*$C$9</f>
+        <v>1639999.9999999998</v>
+      </c>
+      <c r="J40" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40">
+        <v>9023</v>
+      </c>
+      <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="N40">
+        <f>M40*$C$9</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <f>C38*C40</f>
+        <v>410</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="G41">
+        <v>50000</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>819999.99999999988</v>
+      </c>
+      <c r="J41" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41">
+        <v>9017</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:N49" si="3">M41*$C$9</f>
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42">
+        <v>9026</v>
+      </c>
+      <c r="G42">
+        <v>10000</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>164000</v>
+      </c>
+      <c r="J42" t="s">
+        <v>50</v>
+      </c>
+      <c r="K42" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42">
+        <v>9027</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <f>M42*$C$9</f>
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>2000000000000</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>32799999999999.996</v>
+      </c>
+      <c r="J43" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" t="s">
+        <v>35</v>
+      </c>
+      <c r="L43">
+        <v>9028</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <f>M43*$C$9</f>
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <f>C41/C43</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44">
+        <v>9062</v>
+      </c>
+      <c r="G44">
+        <v>5000</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>82000</v>
+      </c>
+      <c r="J44" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44">
+        <v>9033</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <f>M44*$C$9</f>
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45">
+        <v>9016</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>16400</v>
+      </c>
+      <c r="J45" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" t="s">
+        <v>37</v>
+      </c>
+      <c r="L45">
+        <v>9038</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <f>M45*$C$9</f>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <v>1000</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>16400</v>
+      </c>
+      <c r="J46" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46">
+        <v>9044</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ref="N44:N52" si="4">M46*$C$9</f>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47">
+        <v>9010</v>
+      </c>
+      <c r="G47">
+        <v>20000</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>328000</v>
+      </c>
+      <c r="J47" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" t="s">
+        <v>56</v>
+      </c>
+      <c r="L47">
+        <v>9050</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="4"/>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>46</v>
+      </c>
+      <c r="G48">
+        <v>100000</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>1639999.9999999998</v>
+      </c>
+      <c r="J48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48" t="s">
+        <v>53</v>
+      </c>
+      <c r="L48">
+        <v>9053</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="4"/>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49">
+        <v>9064</v>
+      </c>
+      <c r="G49">
+        <v>10000</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>164000</v>
+      </c>
+      <c r="J49" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49" t="s">
+        <v>54</v>
+      </c>
+      <c r="L49">
+        <v>9063</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="4"/>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50">
+        <v>9048</v>
+      </c>
+      <c r="G50">
+        <v>10000</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>164000</v>
+      </c>
+    </row>
+    <row r="51" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51">
+        <v>9008</v>
+      </c>
+      <c r="G51">
+        <v>100000</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>1639999.9999999998</v>
+      </c>
+      <c r="K51" t="s">
+        <v>15</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="52" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+      <c r="G52">
+        <v>1000000</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>16399999.999999998</v>
+      </c>
+      <c r="K52" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>2000000000000</v>
+      </c>
+    </row>
+    <row r="53" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53">
+        <v>9001</v>
+      </c>
+      <c r="G53">
+        <v>100000</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>1639999.9999999998</v>
+      </c>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53">
+        <v>14</v>
+      </c>
+      <c r="M53">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>2000000000000</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>32799999999999.996</v>
+      </c>
+      <c r="K54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54">
+        <v>20</v>
+      </c>
+      <c r="M54">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="55" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55">
+        <v>9049</v>
+      </c>
+      <c r="G55">
+        <v>5000</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>82000</v>
+      </c>
+      <c r="K55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55">
+        <v>30</v>
+      </c>
+      <c r="M55">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="56" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56">
+        <v>9010</v>
+      </c>
+      <c r="G56">
+        <v>20000</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>328000</v>
+      </c>
+      <c r="K56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56">
+        <v>46</v>
+      </c>
+      <c r="M56">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="57" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57">
+        <v>88</v>
+      </c>
+      <c r="G57">
+        <v>100000</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>1639999.9999999998</v>
+      </c>
+      <c r="K57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57">
+        <v>73</v>
+      </c>
+      <c r="M57">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="58" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58">
+        <v>9065</v>
+      </c>
+      <c r="G58">
+        <v>5000</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>82000</v>
+      </c>
+      <c r="K58" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58">
+        <v>88</v>
+      </c>
+      <c r="M58">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="59" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59">
+        <v>9043</v>
+      </c>
+      <c r="G59">
+        <v>100000</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>1639999.9999999998</v>
+      </c>
+      <c r="K59" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59">
+        <v>9001</v>
+      </c>
+      <c r="M59">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="60" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60">
+        <v>30</v>
+      </c>
+      <c r="G60">
+        <v>50000</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>819999.99999999988</v>
+      </c>
+      <c r="K60" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60">
+        <v>9008</v>
+      </c>
+      <c r="M60">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="61" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61">
+        <v>73</v>
+      </c>
+      <c r="G61">
+        <v>100000</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>1639999.9999999998</v>
+      </c>
+      <c r="K61" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61">
+        <v>9010</v>
+      </c>
+      <c r="M61">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="62" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62">
+        <v>9032</v>
+      </c>
+      <c r="G62">
+        <v>500000</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>8199999.9999999991</v>
+      </c>
+      <c r="K62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62">
+        <v>9016</v>
+      </c>
+      <c r="M62">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>2000000000000</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>32799999999999.996</v>
+      </c>
+      <c r="K63" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63">
+        <v>9026</v>
+      </c>
+      <c r="M63">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="64" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="K64" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64">
+        <v>9032</v>
+      </c>
+      <c r="M64">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="65" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K65" t="s">
+        <v>29</v>
+      </c>
+      <c r="L65">
+        <v>9043</v>
+      </c>
+      <c r="M65">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="66" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L66">
+        <v>9048</v>
+      </c>
+      <c r="M66">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="67" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K67" t="s">
+        <v>58</v>
+      </c>
+      <c r="L67">
+        <v>9049</v>
+      </c>
+      <c r="M67">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="68" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K68" t="s">
+        <v>60</v>
+      </c>
+      <c r="L68">
+        <v>9062</v>
+      </c>
+      <c r="M68">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="69" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K69" t="s">
+        <v>63</v>
+      </c>
+      <c r="L69">
+        <v>9064</v>
+      </c>
+      <c r="M69">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="70" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K70" t="s">
+        <v>65</v>
+      </c>
+      <c r="L70">
+        <v>9065</v>
+      </c>
+      <c r="M70">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B35:D35"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
